--- a/Class_02/2020-03-17-Casos-confirmados.xlsx
+++ b/Class_02/2020-03-17-Casos-confirmados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/estebanlopezochoa/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camimartinez/Desktop/Dropbox/Spatial Analytics/Repositorios/Clases2/Class_02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200C582F-ECBD-AF45-8D75-EAB1B0B63874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEBEEEA-41FB-184E-8E43-0EAB996A9949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="25420" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
 </workbook>
 </file>
 
@@ -302,7 +303,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4141,5 +4142,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>